--- a/Code/Results/Cases/Case_1_74/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_74/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.1057024998079</v>
+        <v>16.54545838086715</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.335299190181674</v>
+        <v>5.722038895503942</v>
       </c>
       <c r="E2">
-        <v>11.59092737851283</v>
+        <v>17.52249396634937</v>
       </c>
       <c r="F2">
-        <v>24.41889899856188</v>
+        <v>29.5519018095289</v>
       </c>
       <c r="G2">
-        <v>34.02259677224312</v>
+        <v>38.08112812468947</v>
       </c>
       <c r="H2">
-        <v>11.09341369453339</v>
+        <v>16.42631398368536</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.54642221221524</v>
+        <v>9.318829144821382</v>
       </c>
       <c r="L2">
-        <v>6.0136389997492</v>
+        <v>8.75353456115476</v>
       </c>
       <c r="M2">
-        <v>10.29083229116502</v>
+        <v>15.43853456028563</v>
       </c>
       <c r="N2">
-        <v>14.24718152345397</v>
+        <v>21.62904568115881</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.56624718198968</v>
+        <v>16.47607657064935</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.314019961889684</v>
+        <v>5.711757341918568</v>
       </c>
       <c r="E3">
-        <v>11.63222091148007</v>
+        <v>17.5429456080166</v>
       </c>
       <c r="F3">
-        <v>23.66676120954368</v>
+        <v>29.48370385422345</v>
       </c>
       <c r="G3">
-        <v>32.8536216278368</v>
+        <v>37.93385562560665</v>
       </c>
       <c r="H3">
-        <v>10.99768381825137</v>
+        <v>16.45192886621513</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.69287070516366</v>
+        <v>8.893747222936744</v>
       </c>
       <c r="L3">
-        <v>5.824965585394494</v>
+        <v>8.740986830349208</v>
       </c>
       <c r="M3">
-        <v>10.02855339083786</v>
+        <v>15.42873960270313</v>
       </c>
       <c r="N3">
-        <v>14.46698252836873</v>
+        <v>21.69320454541203</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.23010923687132</v>
+        <v>16.4367342744358</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.3007164553182</v>
+        <v>5.7053036584773</v>
       </c>
       <c r="E4">
-        <v>11.65947865685827</v>
+        <v>17.55632372529484</v>
       </c>
       <c r="F4">
-        <v>23.21445842717405</v>
+        <v>29.44954628550543</v>
       </c>
       <c r="G4">
-        <v>32.14854878516978</v>
+        <v>37.85460718003018</v>
       </c>
       <c r="H4">
-        <v>10.94641273065331</v>
+        <v>16.47065086303179</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.14234094714781</v>
+        <v>8.620037964399353</v>
       </c>
       <c r="L4">
-        <v>5.709075515545852</v>
+        <v>8.734732667026895</v>
       </c>
       <c r="M4">
-        <v>9.869100999487634</v>
+        <v>15.4251837801056</v>
       </c>
       <c r="N4">
-        <v>14.60523229989495</v>
+        <v>21.73449619459756</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.09210039160917</v>
+        <v>16.42153428103252</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.295238318770727</v>
+        <v>5.702638675374615</v>
       </c>
       <c r="E5">
-        <v>11.67105657282594</v>
+        <v>17.56198224081656</v>
       </c>
       <c r="F5">
-        <v>23.03273197346378</v>
+        <v>29.43757592833875</v>
       </c>
       <c r="G5">
-        <v>31.86474599876347</v>
+        <v>37.82514614011323</v>
       </c>
       <c r="H5">
-        <v>10.9273599825454</v>
+        <v>16.47903228706476</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.91138098280836</v>
+        <v>8.505379384193407</v>
       </c>
       <c r="L5">
-        <v>5.66190200611187</v>
+        <v>8.732550804357409</v>
       </c>
       <c r="M5">
-        <v>9.804601841070332</v>
+        <v>15.42435535234353</v>
       </c>
       <c r="N5">
-        <v>14.6624164916436</v>
+        <v>21.75180131725315</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.06912836259426</v>
+        <v>16.41906096174855</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.294325332403762</v>
+        <v>5.702194049778452</v>
       </c>
       <c r="E6">
-        <v>11.67300724204432</v>
+        <v>17.562934337849</v>
       </c>
       <c r="F6">
-        <v>23.00271876044469</v>
+        <v>29.43570619898383</v>
       </c>
       <c r="G6">
-        <v>31.81784326395298</v>
+        <v>37.8204258659943</v>
       </c>
       <c r="H6">
-        <v>10.9243060250835</v>
+        <v>16.48046940947169</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.87263217739418</v>
+        <v>8.486154442707718</v>
       </c>
       <c r="L6">
-        <v>5.654073997112325</v>
+        <v>8.732210715782985</v>
       </c>
       <c r="M6">
-        <v>9.79392310317786</v>
+        <v>15.42425534053126</v>
       </c>
       <c r="N6">
-        <v>14.67196353625541</v>
+        <v>21.7547037520024</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.22825188366973</v>
+        <v>16.43652589566106</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.300642801478989</v>
+        <v>5.705267859074935</v>
       </c>
       <c r="E7">
-        <v>11.65963290756824</v>
+        <v>17.55639919997604</v>
       </c>
       <c r="F7">
-        <v>23.21199684654743</v>
+        <v>29.44937694708531</v>
       </c>
       <c r="G7">
-        <v>32.14470662241096</v>
+        <v>37.8541983591988</v>
       </c>
       <c r="H7">
-        <v>10.94614839029546</v>
+        <v>16.47076085411566</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.1392528614772</v>
+        <v>8.618504161657556</v>
       </c>
       <c r="L7">
-        <v>5.708439016930387</v>
+        <v>8.734701754074317</v>
       </c>
       <c r="M7">
-        <v>9.868229095020425</v>
+        <v>15.4251700918654</v>
       </c>
       <c r="N7">
-        <v>14.60600005483311</v>
+        <v>21.73472763875407</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.9208330364236</v>
+        <v>16.52086732681999</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.328013294613277</v>
+        <v>5.71852323547941</v>
       </c>
       <c r="E8">
-        <v>11.60476500559005</v>
+        <v>17.52937561834223</v>
       </c>
       <c r="F8">
-        <v>24.15770492688825</v>
+        <v>29.52679155523882</v>
       </c>
       <c r="G8">
-        <v>33.6170956878621</v>
+        <v>38.02804352928803</v>
       </c>
       <c r="H8">
-        <v>11.05882031313134</v>
+        <v>16.4345240189729</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.25762163330732</v>
+        <v>9.174939748218105</v>
       </c>
       <c r="L8">
-        <v>5.948630376496149</v>
+        <v>8.748908440764815</v>
       </c>
       <c r="M8">
-        <v>10.20011598533462</v>
+        <v>15.43464857818663</v>
       </c>
       <c r="N8">
-        <v>14.32229727864618</v>
+        <v>21.65077449162876</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.23223894923832</v>
+        <v>16.71149990497549</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.379667792701434</v>
+        <v>5.743385807945186</v>
       </c>
       <c r="E9">
-        <v>11.51269755595069</v>
+        <v>17.48287455432732</v>
       </c>
       <c r="F9">
-        <v>26.07944138347887</v>
+        <v>29.73934640557311</v>
       </c>
       <c r="G9">
-        <v>36.59159709374627</v>
+        <v>38.45645484262636</v>
       </c>
       <c r="H9">
-        <v>11.34132090623471</v>
+        <v>16.38725798303938</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.24032410061085</v>
+        <v>10.16256797246201</v>
       </c>
       <c r="L9">
-        <v>6.416739855392882</v>
+        <v>8.788173131899402</v>
       </c>
       <c r="M9">
-        <v>10.86020704113023</v>
+        <v>15.47262384694731</v>
       </c>
       <c r="N9">
-        <v>13.79119594196154</v>
+        <v>21.50114488900553</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.15850549804107</v>
+        <v>16.86605825209355</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.416212478033501</v>
+        <v>5.760944785562759</v>
       </c>
       <c r="E10">
-        <v>11.45519255085168</v>
+        <v>17.45264047579068</v>
       </c>
       <c r="F10">
-        <v>27.52234144747176</v>
+        <v>29.93176654692595</v>
       </c>
       <c r="G10">
-        <v>38.81428875774487</v>
+        <v>38.82269668722251</v>
       </c>
       <c r="H10">
-        <v>11.58896072801688</v>
+        <v>16.36707866278614</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.56915177508576</v>
+        <v>10.82214694208658</v>
       </c>
       <c r="L10">
-        <v>6.755857622734894</v>
+        <v>8.823825098478357</v>
       </c>
       <c r="M10">
-        <v>11.34668398011756</v>
+        <v>15.51217012768665</v>
       </c>
       <c r="N10">
-        <v>13.41513222801762</v>
+        <v>21.40027754391105</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.57042217553148</v>
+        <v>16.93931270893779</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.432494865246009</v>
+        <v>5.76877543445878</v>
       </c>
       <c r="E11">
-        <v>11.4314078412045</v>
+        <v>17.43973385833387</v>
       </c>
       <c r="F11">
-        <v>28.18378539788692</v>
+        <v>30.02696865203248</v>
       </c>
       <c r="G11">
-        <v>39.83098621225559</v>
+        <v>39.00001631292432</v>
       </c>
       <c r="H11">
-        <v>11.71083511040519</v>
+        <v>16.3610628816449</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.14627382721578</v>
+        <v>11.10742570140577</v>
       </c>
       <c r="L11">
-        <v>6.962586937150644</v>
+        <v>8.841485118437657</v>
       </c>
       <c r="M11">
-        <v>11.56756144280061</v>
+        <v>15.53264642466565</v>
       </c>
       <c r="N11">
-        <v>13.24684356505678</v>
+        <v>21.35634181300065</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.72495867286818</v>
+        <v>16.96745714170027</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.438608216935911</v>
+        <v>5.771717776223228</v>
       </c>
       <c r="E12">
-        <v>11.42275965794209</v>
+        <v>17.43496782286604</v>
       </c>
       <c r="F12">
-        <v>28.43487542456867</v>
+        <v>30.06410142049801</v>
       </c>
       <c r="G12">
-        <v>40.21663018133628</v>
+        <v>39.06865820920918</v>
       </c>
       <c r="H12">
-        <v>11.75835186371184</v>
+        <v>16.35923994041209</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.36092346020731</v>
+        <v>11.21330169089116</v>
       </c>
       <c r="L12">
-        <v>7.046529422214422</v>
+        <v>8.848376358528489</v>
       </c>
       <c r="M12">
-        <v>11.65108646444275</v>
+        <v>15.54075363343172</v>
       </c>
       <c r="N12">
-        <v>13.18349491028796</v>
+        <v>21.33998356806795</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.69174205400042</v>
+        <v>16.96137805023913</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.437293981496994</v>
+        <v>5.771085117180906</v>
       </c>
       <c r="E13">
-        <v>11.42460595549183</v>
+        <v>17.43598887965972</v>
       </c>
       <c r="F13">
-        <v>28.38077280004227</v>
+        <v>30.05605645560297</v>
       </c>
       <c r="G13">
-        <v>40.1335482925944</v>
+        <v>39.05380923090115</v>
       </c>
       <c r="H13">
-        <v>11.74805691866621</v>
+        <v>16.35961230229381</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.31486723195022</v>
+        <v>11.19059555952862</v>
       </c>
       <c r="L13">
-        <v>7.028517768747268</v>
+        <v>8.846883202637505</v>
       </c>
       <c r="M13">
-        <v>11.63310384273369</v>
+        <v>15.53899196003881</v>
       </c>
       <c r="N13">
-        <v>13.19712168696017</v>
+        <v>21.34349420504473</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.58316543380707</v>
+        <v>16.94162017122573</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.432998884002168</v>
+        <v>5.769017964889601</v>
       </c>
       <c r="E14">
-        <v>11.43068905788189</v>
+        <v>17.43933932243251</v>
       </c>
       <c r="F14">
-        <v>28.2044309302573</v>
+        <v>30.03000203342071</v>
       </c>
       <c r="G14">
-        <v>39.86270123516682</v>
+        <v>39.0056338389975</v>
       </c>
       <c r="H14">
-        <v>11.71471674845968</v>
+        <v>16.36090378606772</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.16401094687975</v>
+        <v>11.11617947774455</v>
       </c>
       <c r="L14">
-        <v>6.969523096853926</v>
+        <v>8.84204800209069</v>
       </c>
       <c r="M14">
-        <v>11.57443572296672</v>
+        <v>15.53330635492029</v>
       </c>
       <c r="N14">
-        <v>13.24162437077477</v>
+        <v>21.35499041945584</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.51646832078351</v>
+        <v>16.92957001194291</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.430361087064134</v>
+        <v>5.767748773860985</v>
       </c>
       <c r="E15">
-        <v>11.43446237504251</v>
+        <v>17.44140736673828</v>
       </c>
       <c r="F15">
-        <v>28.09649376103271</v>
+        <v>30.01418317381248</v>
       </c>
       <c r="G15">
-        <v>39.69687937614085</v>
+        <v>38.97631827197516</v>
       </c>
       <c r="H15">
-        <v>11.69447393849983</v>
+        <v>16.3617541261602</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.07110142156246</v>
+        <v>11.07031633599046</v>
       </c>
       <c r="L15">
-        <v>6.933191010094405</v>
+        <v>8.839112730396383</v>
       </c>
       <c r="M15">
-        <v>11.53848311338092</v>
+        <v>15.52986963301039</v>
       </c>
       <c r="N15">
-        <v>13.26893220536027</v>
+        <v>21.36206852012561</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.13138762050103</v>
+        <v>16.86132856022508</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.415141226249677</v>
+        <v>5.760429842465223</v>
       </c>
       <c r="E16">
-        <v>11.45679613400312</v>
+        <v>17.45350096516351</v>
       </c>
       <c r="F16">
-        <v>27.47920613979752</v>
+        <v>29.92569743494184</v>
       </c>
       <c r="G16">
-        <v>38.74794273780375</v>
+        <v>38.81132018077609</v>
       </c>
       <c r="H16">
-        <v>11.58118489802433</v>
+        <v>16.36753549015927</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.53088808161217</v>
+        <v>10.80320350548761</v>
       </c>
       <c r="L16">
-        <v>6.745843132327146</v>
+        <v>8.822699688186518</v>
       </c>
       <c r="M16">
-        <v>11.33223567812701</v>
+        <v>15.51088162957828</v>
       </c>
       <c r="N16">
-        <v>13.4261844612415</v>
+        <v>21.40318798279489</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.89266387640593</v>
+        <v>16.82020569083995</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.405714434964936</v>
+        <v>5.755899431120513</v>
       </c>
       <c r="E17">
-        <v>11.47111686847717</v>
+        <v>17.46113666547318</v>
       </c>
       <c r="F17">
-        <v>27.10172783184991</v>
+        <v>29.87336420686633</v>
       </c>
       <c r="G17">
-        <v>38.16710163923474</v>
+        <v>38.71281175221737</v>
       </c>
       <c r="H17">
-        <v>11.51407587223823</v>
+        <v>16.37189267827286</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.19250119456851</v>
+        <v>10.63553342057365</v>
       </c>
       <c r="L17">
-        <v>6.657899476387859</v>
+        <v>8.812997633143247</v>
       </c>
       <c r="M17">
-        <v>11.20555924422302</v>
+        <v>15.49986700969423</v>
       </c>
       <c r="N17">
-        <v>13.52335137941706</v>
+        <v>21.42891196084791</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.75447114086565</v>
+        <v>16.79683128915014</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.400260401894628</v>
+        <v>5.753278901434637</v>
       </c>
       <c r="E18">
-        <v>11.47957613982473</v>
+        <v>17.4656082659308</v>
       </c>
       <c r="F18">
-        <v>26.8850937394964</v>
+        <v>29.84398676132446</v>
       </c>
       <c r="G18">
-        <v>37.83354940622824</v>
+        <v>38.65716375497203</v>
       </c>
       <c r="H18">
-        <v>11.47634222194007</v>
+        <v>16.37469662152933</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.9952907886536</v>
+        <v>10.53770543005985</v>
       </c>
       <c r="L18">
-        <v>6.607171876520511</v>
+        <v>8.807553199827415</v>
       </c>
       <c r="M18">
-        <v>11.13266134073728</v>
+        <v>15.4937660075379</v>
       </c>
       <c r="N18">
-        <v>13.57950264314177</v>
+        <v>21.44389125452065</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.70753246929651</v>
+        <v>16.78896549717127</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.398408364299192</v>
+        <v>5.752389112082742</v>
       </c>
       <c r="E19">
-        <v>11.48247800835031</v>
+        <v>17.46713598137776</v>
       </c>
       <c r="F19">
-        <v>26.81183172595364</v>
+        <v>29.8341648907721</v>
       </c>
       <c r="G19">
-        <v>37.72071143609107</v>
+        <v>38.63849736289644</v>
       </c>
       <c r="H19">
-        <v>11.46371373022182</v>
+        <v>16.3756971293137</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.92807465840566</v>
+        <v>10.50434505477183</v>
       </c>
       <c r="L19">
-        <v>6.589972718464825</v>
+        <v>8.805733259254202</v>
       </c>
       <c r="M19">
-        <v>11.10797482831378</v>
+        <v>15.49174068234339</v>
       </c>
       <c r="N19">
-        <v>13.59856040046642</v>
+        <v>21.44899454168684</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.91816874428598</v>
+        <v>16.82455461372133</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.406721267581371</v>
+        <v>5.756383231144458</v>
       </c>
       <c r="E20">
-        <v>11.46956927098969</v>
+        <v>17.46031558134847</v>
       </c>
       <c r="F20">
-        <v>27.14186211735622</v>
+        <v>29.87886046174146</v>
       </c>
       <c r="G20">
-        <v>38.22887940098128</v>
+        <v>38.72319378431393</v>
       </c>
       <c r="H20">
-        <v>11.5211298605698</v>
+        <v>16.37139802493138</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.2287897281496</v>
+        <v>10.65352613301406</v>
       </c>
       <c r="L20">
-        <v>6.667276487478711</v>
+        <v>8.814016390008984</v>
       </c>
       <c r="M20">
-        <v>11.21904841935218</v>
+        <v>15.50101531398083</v>
       </c>
       <c r="N20">
-        <v>13.5129806892749</v>
+        <v>21.42615461119603</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.61509691247966</v>
+        <v>16.94741271382851</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.434261907420119</v>
+        <v>5.769625763609247</v>
       </c>
       <c r="E21">
-        <v>11.42889242453435</v>
+        <v>17.43835192385502</v>
       </c>
       <c r="F21">
-        <v>28.25621085896519</v>
+        <v>30.0376256658459</v>
       </c>
       <c r="G21">
-        <v>39.94223917068783</v>
+        <v>39.01974393217083</v>
       </c>
       <c r="H21">
-        <v>11.7244721893169</v>
+        <v>16.36051209438614</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.20842639197581</v>
+        <v>11.13809591927744</v>
       </c>
       <c r="L21">
-        <v>6.98689210080458</v>
+        <v>8.843462716715344</v>
       </c>
       <c r="M21">
-        <v>11.59167153920793</v>
+        <v>15.53496680262387</v>
       </c>
       <c r="N21">
-        <v>13.22854275314196</v>
+        <v>21.35160613177928</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.06211561145173</v>
+        <v>17.03005643253165</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.451954145044251</v>
+        <v>5.778146551093116</v>
       </c>
       <c r="E22">
-        <v>11.40440734615087</v>
+        <v>17.42470496330355</v>
       </c>
       <c r="F22">
-        <v>28.98805879293216</v>
+        <v>30.14768241147894</v>
       </c>
       <c r="G22">
-        <v>41.06572627786548</v>
+        <v>39.22224602159711</v>
       </c>
       <c r="H22">
-        <v>11.86534617928266</v>
+        <v>16.35605013805585</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.82600526213878</v>
+        <v>11.44223188503441</v>
       </c>
       <c r="L22">
-        <v>7.228431250432009</v>
+        <v>8.863893543155662</v>
       </c>
       <c r="M22">
-        <v>11.83450294076487</v>
+        <v>15.55921305244971</v>
       </c>
       <c r="N22">
-        <v>13.04484273223566</v>
+        <v>21.30451167249169</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.82433212529551</v>
+        <v>16.98573942938782</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.442540653927912</v>
+        <v>5.773611228910145</v>
       </c>
       <c r="E23">
-        <v>11.41727714202021</v>
+        <v>17.43192398512654</v>
       </c>
       <c r="F23">
-        <v>28.5971619264289</v>
+        <v>30.08837452650042</v>
       </c>
       <c r="G23">
-        <v>40.46580085214825</v>
+        <v>39.11338771889457</v>
       </c>
       <c r="H23">
-        <v>11.78941602849016</v>
+        <v>16.35818885500905</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.49844968141066</v>
+        <v>11.28106615144421</v>
       </c>
       <c r="L23">
-        <v>7.100314989036772</v>
+        <v>8.852881941204275</v>
       </c>
       <c r="M23">
-        <v>11.70497965847782</v>
+        <v>15.54608564772862</v>
       </c>
       <c r="N23">
-        <v>13.14269314533082</v>
+        <v>21.32949831796986</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.90664093709179</v>
+        <v>16.82258763044072</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.406266185598319</v>
+        <v>5.756164554745824</v>
       </c>
       <c r="E24">
-        <v>11.47026823685746</v>
+        <v>17.4606865388912</v>
       </c>
       <c r="F24">
-        <v>27.12371620436376</v>
+        <v>29.87637339284781</v>
       </c>
       <c r="G24">
-        <v>38.20094847522027</v>
+        <v>38.71849699334675</v>
       </c>
       <c r="H24">
-        <v>11.51793811340537</v>
+        <v>16.37162072650537</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.21239199311146</v>
+        <v>10.64539608658111</v>
       </c>
       <c r="L24">
-        <v>6.663037660078622</v>
+        <v>8.813555394210239</v>
       </c>
       <c r="M24">
-        <v>11.21295017679596</v>
+        <v>15.50049544434332</v>
       </c>
       <c r="N24">
-        <v>13.51766837737723</v>
+        <v>21.42740061628436</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.88346301304754</v>
+        <v>16.65731457256375</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.365928080784625</v>
+        <v>5.736782780777101</v>
       </c>
       <c r="E25">
-        <v>11.53587762568271</v>
+        <v>17.49476216441191</v>
       </c>
       <c r="F25">
-        <v>25.55346130126081</v>
+        <v>29.67541344218705</v>
       </c>
       <c r="G25">
-        <v>35.77934667741556</v>
+        <v>38.3313669364329</v>
       </c>
       <c r="H25">
-        <v>11.25803448448851</v>
+        <v>16.39749241123122</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.72648823975589</v>
+        <v>9.906808795603979</v>
       </c>
       <c r="L25">
-        <v>6.290749718989158</v>
+        <v>8.776344393853845</v>
       </c>
       <c r="M25">
-        <v>10.68109035173575</v>
+        <v>15.46029161342575</v>
       </c>
       <c r="N25">
-        <v>13.93229840503689</v>
+        <v>21.54002591493527</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_74/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_74/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.54545838086715</v>
+        <v>13.10570249980789</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.722038895503942</v>
+        <v>4.335299190181801</v>
       </c>
       <c r="E2">
-        <v>17.52249396634937</v>
+        <v>11.59092737851291</v>
       </c>
       <c r="F2">
-        <v>29.5519018095289</v>
+        <v>24.41889899856178</v>
       </c>
       <c r="G2">
-        <v>38.08112812468947</v>
+        <v>34.02259677224298</v>
       </c>
       <c r="H2">
-        <v>16.42631398368536</v>
+        <v>11.09341369453335</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.318829144821382</v>
+        <v>14.54642221221531</v>
       </c>
       <c r="L2">
-        <v>8.75353456115476</v>
+        <v>6.013638999749202</v>
       </c>
       <c r="M2">
-        <v>15.43853456028563</v>
+        <v>10.29083229116501</v>
       </c>
       <c r="N2">
-        <v>21.62904568115881</v>
+        <v>14.24718152345394</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.47607657064935</v>
+        <v>12.56624718198969</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.711757341918568</v>
+        <v>4.314019961889678</v>
       </c>
       <c r="E3">
-        <v>17.5429456080166</v>
+        <v>11.63222091148001</v>
       </c>
       <c r="F3">
-        <v>29.48370385422345</v>
+        <v>23.66676120954363</v>
       </c>
       <c r="G3">
-        <v>37.93385562560665</v>
+        <v>32.85362162783662</v>
       </c>
       <c r="H3">
-        <v>16.45192886621513</v>
+        <v>10.99768381825137</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.893747222936744</v>
+        <v>13.69287070516366</v>
       </c>
       <c r="L3">
-        <v>8.740986830349208</v>
+        <v>5.824965585394501</v>
       </c>
       <c r="M3">
-        <v>15.42873960270313</v>
+        <v>10.02855339083784</v>
       </c>
       <c r="N3">
-        <v>21.69320454541203</v>
+        <v>14.4669825283687</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.4367342744358</v>
+        <v>12.2301092368713</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.7053036584773</v>
+        <v>4.300716455318394</v>
       </c>
       <c r="E4">
-        <v>17.55632372529484</v>
+        <v>11.6594786568582</v>
       </c>
       <c r="F4">
-        <v>29.44954628550543</v>
+        <v>23.21445842717393</v>
       </c>
       <c r="G4">
-        <v>37.85460718003018</v>
+        <v>32.14854878516964</v>
       </c>
       <c r="H4">
-        <v>16.47065086303179</v>
+        <v>10.94641273065329</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.620037964399353</v>
+        <v>13.1423409471478</v>
       </c>
       <c r="L4">
-        <v>8.734732667026895</v>
+        <v>5.709075515545837</v>
       </c>
       <c r="M4">
-        <v>15.4251837801056</v>
+        <v>9.869100999487614</v>
       </c>
       <c r="N4">
-        <v>21.73449619459756</v>
+        <v>14.60523229989491</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.42153428103252</v>
+        <v>12.09210039160915</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.702638675374615</v>
+        <v>4.295238318770724</v>
       </c>
       <c r="E5">
-        <v>17.56198224081656</v>
+        <v>11.67105657282601</v>
       </c>
       <c r="F5">
-        <v>29.43757592833875</v>
+        <v>23.03273197346378</v>
       </c>
       <c r="G5">
-        <v>37.82514614011323</v>
+        <v>31.86474599876364</v>
       </c>
       <c r="H5">
-        <v>16.47903228706476</v>
+        <v>10.92735998254536</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.505379384193407</v>
+        <v>12.91138098280836</v>
       </c>
       <c r="L5">
-        <v>8.732550804357409</v>
+        <v>5.661902006111932</v>
       </c>
       <c r="M5">
-        <v>15.42435535234353</v>
+        <v>9.804601841070355</v>
       </c>
       <c r="N5">
-        <v>21.75180131725315</v>
+        <v>14.6624164916436</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.41906096174855</v>
+        <v>12.06912836259432</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.702194049778452</v>
+        <v>4.294325332403492</v>
       </c>
       <c r="E6">
-        <v>17.562934337849</v>
+        <v>11.67300724204439</v>
       </c>
       <c r="F6">
-        <v>29.43570619898383</v>
+        <v>23.00271876044478</v>
       </c>
       <c r="G6">
-        <v>37.8204258659943</v>
+        <v>31.81784326395303</v>
       </c>
       <c r="H6">
-        <v>16.48046940947169</v>
+        <v>10.9243060250835</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.486154442707718</v>
+        <v>12.87263217739416</v>
       </c>
       <c r="L6">
-        <v>8.732210715782985</v>
+        <v>5.654073997112314</v>
       </c>
       <c r="M6">
-        <v>15.42425534053126</v>
+        <v>9.793923103177885</v>
       </c>
       <c r="N6">
-        <v>21.7547037520024</v>
+        <v>14.67196353625541</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.43652589566106</v>
+        <v>12.2282518836697</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.705267859074935</v>
+        <v>4.300642801479115</v>
       </c>
       <c r="E7">
-        <v>17.55639919997604</v>
+        <v>11.65963290756817</v>
       </c>
       <c r="F7">
-        <v>29.44937694708531</v>
+        <v>23.21199684654737</v>
       </c>
       <c r="G7">
-        <v>37.8541983591988</v>
+        <v>32.14470662241094</v>
       </c>
       <c r="H7">
-        <v>16.47076085411566</v>
+        <v>10.94614839029545</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.618504161657556</v>
+        <v>13.13925286147723</v>
       </c>
       <c r="L7">
-        <v>8.734701754074317</v>
+        <v>5.708439016930362</v>
       </c>
       <c r="M7">
-        <v>15.4251700918654</v>
+        <v>9.868229095020386</v>
       </c>
       <c r="N7">
-        <v>21.73472763875407</v>
+        <v>14.60600005483314</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.52086732681999</v>
+        <v>12.92083303642359</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.71852323547941</v>
+        <v>4.328013294613404</v>
       </c>
       <c r="E8">
-        <v>17.52937561834223</v>
+        <v>11.60476500558999</v>
       </c>
       <c r="F8">
-        <v>29.52679155523882</v>
+        <v>24.15770492688807</v>
       </c>
       <c r="G8">
-        <v>38.02804352928803</v>
+        <v>33.61709568786209</v>
       </c>
       <c r="H8">
-        <v>16.4345240189729</v>
+        <v>11.05882031313117</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.174939748218105</v>
+        <v>14.25762163330735</v>
       </c>
       <c r="L8">
-        <v>8.748908440764815</v>
+        <v>5.948630376496087</v>
       </c>
       <c r="M8">
-        <v>15.43464857818663</v>
+        <v>10.2001159853346</v>
       </c>
       <c r="N8">
-        <v>21.65077449162876</v>
+        <v>14.32229727864611</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.71149990497549</v>
+        <v>14.23223894923836</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.743385807945186</v>
+        <v>4.379667792701502</v>
       </c>
       <c r="E9">
-        <v>17.48287455432732</v>
+        <v>11.51269755595083</v>
       </c>
       <c r="F9">
-        <v>29.73934640557311</v>
+        <v>26.07944138347885</v>
       </c>
       <c r="G9">
-        <v>38.45645484262636</v>
+        <v>36.59159709374629</v>
       </c>
       <c r="H9">
-        <v>16.38725798303938</v>
+        <v>11.34132090623466</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.16256797246201</v>
+        <v>16.24032410061092</v>
       </c>
       <c r="L9">
-        <v>8.788173131899402</v>
+        <v>6.416739855392853</v>
       </c>
       <c r="M9">
-        <v>15.47262384694731</v>
+        <v>10.86020704113023</v>
       </c>
       <c r="N9">
-        <v>21.50114488900553</v>
+        <v>13.79119594196154</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.86605825209355</v>
+        <v>15.15850549804104</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.760944785562759</v>
+        <v>4.416212478033563</v>
       </c>
       <c r="E10">
-        <v>17.45264047579068</v>
+        <v>11.45519255085162</v>
       </c>
       <c r="F10">
-        <v>29.93176654692595</v>
+        <v>27.52234144747179</v>
       </c>
       <c r="G10">
-        <v>38.82269668722251</v>
+        <v>38.81428875774493</v>
       </c>
       <c r="H10">
-        <v>16.36707866278614</v>
+        <v>11.58896072801688</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.82214694208658</v>
+        <v>17.56915177508577</v>
       </c>
       <c r="L10">
-        <v>8.823825098478357</v>
+        <v>6.755857622734886</v>
       </c>
       <c r="M10">
-        <v>15.51217012768665</v>
+        <v>11.34668398011754</v>
       </c>
       <c r="N10">
-        <v>21.40027754391105</v>
+        <v>13.41513222801768</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.93931270893779</v>
+        <v>15.57042217553149</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.76877543445878</v>
+        <v>4.432494865246088</v>
       </c>
       <c r="E11">
-        <v>17.43973385833387</v>
+        <v>11.43140784120476</v>
       </c>
       <c r="F11">
-        <v>30.02696865203248</v>
+        <v>28.18378539788699</v>
       </c>
       <c r="G11">
-        <v>39.00001631292432</v>
+        <v>39.83098621225568</v>
       </c>
       <c r="H11">
-        <v>16.3610628816449</v>
+        <v>11.71083511040524</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.10742570140577</v>
+        <v>18.14627382721581</v>
       </c>
       <c r="L11">
-        <v>8.841485118437657</v>
+        <v>6.962586937150619</v>
       </c>
       <c r="M11">
-        <v>15.53264642466565</v>
+        <v>11.56756144280064</v>
       </c>
       <c r="N11">
-        <v>21.35634181300065</v>
+        <v>13.24684356505699</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.96745714170027</v>
+        <v>15.7249586728682</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.771717776223228</v>
+        <v>4.438608216935908</v>
       </c>
       <c r="E12">
-        <v>17.43496782286604</v>
+        <v>11.42275965794203</v>
       </c>
       <c r="F12">
-        <v>30.06410142049801</v>
+        <v>28.43487542456867</v>
       </c>
       <c r="G12">
-        <v>39.06865820920918</v>
+        <v>40.21663018133631</v>
       </c>
       <c r="H12">
-        <v>16.35923994041209</v>
+        <v>11.75835186371182</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.21330169089116</v>
+        <v>18.36092346020736</v>
       </c>
       <c r="L12">
-        <v>8.848376358528489</v>
+        <v>7.046529422214452</v>
       </c>
       <c r="M12">
-        <v>15.54075363343172</v>
+        <v>11.65108646444273</v>
       </c>
       <c r="N12">
-        <v>21.33998356806795</v>
+        <v>13.18349491028797</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.96137805023913</v>
+        <v>15.69174205400044</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.771085117180906</v>
+        <v>4.437293981496813</v>
       </c>
       <c r="E13">
-        <v>17.43598887965972</v>
+        <v>11.4246059554919</v>
       </c>
       <c r="F13">
-        <v>30.05605645560297</v>
+        <v>28.38077280004226</v>
       </c>
       <c r="G13">
-        <v>39.05380923090115</v>
+        <v>40.1335482925943</v>
       </c>
       <c r="H13">
-        <v>16.35961230229381</v>
+        <v>11.74805691866622</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.19059555952862</v>
+        <v>18.31486723195026</v>
       </c>
       <c r="L13">
-        <v>8.846883202637505</v>
+        <v>7.028517768747294</v>
       </c>
       <c r="M13">
-        <v>15.53899196003881</v>
+        <v>11.6331038427337</v>
       </c>
       <c r="N13">
-        <v>21.34349420504473</v>
+        <v>13.19712168696013</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.94162017122573</v>
+        <v>15.58316543380706</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.769017964889601</v>
+        <v>4.432998884002295</v>
       </c>
       <c r="E14">
-        <v>17.43933932243251</v>
+        <v>11.43068905788183</v>
       </c>
       <c r="F14">
-        <v>30.03000203342071</v>
+        <v>28.20443093025728</v>
       </c>
       <c r="G14">
-        <v>39.0056338389975</v>
+        <v>39.86270123516682</v>
       </c>
       <c r="H14">
-        <v>16.36090378606772</v>
+        <v>11.71471674845967</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.11617947774455</v>
+        <v>18.16401094687977</v>
       </c>
       <c r="L14">
-        <v>8.84204800209069</v>
+        <v>6.96952309685394</v>
       </c>
       <c r="M14">
-        <v>15.53330635492029</v>
+        <v>11.57443572296668</v>
       </c>
       <c r="N14">
-        <v>21.35499041945584</v>
+        <v>13.2416243707748</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.92957001194291</v>
+        <v>15.51646832078353</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.767748773860985</v>
+        <v>4.430361087064274</v>
       </c>
       <c r="E15">
-        <v>17.44140736673828</v>
+        <v>11.43446237504285</v>
       </c>
       <c r="F15">
-        <v>30.01418317381248</v>
+        <v>28.09649376103263</v>
       </c>
       <c r="G15">
-        <v>38.97631827197516</v>
+        <v>39.69687937614076</v>
       </c>
       <c r="H15">
-        <v>16.3617541261602</v>
+        <v>11.69447393849977</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.07031633599046</v>
+        <v>18.0711014215626</v>
       </c>
       <c r="L15">
-        <v>8.839112730396383</v>
+        <v>6.933191010094418</v>
       </c>
       <c r="M15">
-        <v>15.52986963301039</v>
+        <v>11.53848311338093</v>
       </c>
       <c r="N15">
-        <v>21.36206852012561</v>
+        <v>13.26893220536021</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.86132856022508</v>
+        <v>15.13138762050101</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.760429842465223</v>
+        <v>4.415141226249792</v>
       </c>
       <c r="E16">
-        <v>17.45350096516351</v>
+        <v>11.45679613400306</v>
       </c>
       <c r="F16">
-        <v>29.92569743494184</v>
+        <v>27.47920613979747</v>
       </c>
       <c r="G16">
-        <v>38.81132018077609</v>
+        <v>38.74794273780371</v>
       </c>
       <c r="H16">
-        <v>16.36753549015927</v>
+        <v>11.58118489802432</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.80320350548761</v>
+        <v>17.53088808161217</v>
       </c>
       <c r="L16">
-        <v>8.822699688186518</v>
+        <v>6.745843132327137</v>
       </c>
       <c r="M16">
-        <v>15.51088162957828</v>
+        <v>11.332235678127</v>
       </c>
       <c r="N16">
-        <v>21.40318798279489</v>
+        <v>13.42618446124156</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.82020569083995</v>
+        <v>14.89266387640595</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.755899431120513</v>
+        <v>4.405714434964936</v>
       </c>
       <c r="E17">
-        <v>17.46113666547318</v>
+        <v>11.47111686847717</v>
       </c>
       <c r="F17">
-        <v>29.87336420686633</v>
+        <v>27.10172783184991</v>
       </c>
       <c r="G17">
-        <v>38.71281175221737</v>
+        <v>38.1671016392347</v>
       </c>
       <c r="H17">
-        <v>16.37189267827286</v>
+        <v>11.51407587223825</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.63553342057365</v>
+        <v>17.19250119456848</v>
       </c>
       <c r="L17">
-        <v>8.812997633143247</v>
+        <v>6.657899476387852</v>
       </c>
       <c r="M17">
-        <v>15.49986700969423</v>
+        <v>11.20555924422303</v>
       </c>
       <c r="N17">
-        <v>21.42891196084791</v>
+        <v>13.52335137941703</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.79683128915014</v>
+        <v>14.75447114086564</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.753278901434637</v>
+        <v>4.400260401894521</v>
       </c>
       <c r="E18">
-        <v>17.4656082659308</v>
+        <v>11.47957613982467</v>
       </c>
       <c r="F18">
-        <v>29.84398676132446</v>
+        <v>26.88509373949652</v>
       </c>
       <c r="G18">
-        <v>38.65716375497203</v>
+        <v>37.83354940622831</v>
       </c>
       <c r="H18">
-        <v>16.37469662152933</v>
+        <v>11.47634222194016</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.53770543005985</v>
+        <v>16.99529078865354</v>
       </c>
       <c r="L18">
-        <v>8.807553199827415</v>
+        <v>6.607171876520475</v>
       </c>
       <c r="M18">
-        <v>15.4937660075379</v>
+        <v>11.13266134073725</v>
       </c>
       <c r="N18">
-        <v>21.44389125452065</v>
+        <v>13.57950264314184</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.78896549717127</v>
+        <v>14.70753246929649</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.752389112082742</v>
+        <v>4.398408364299321</v>
       </c>
       <c r="E19">
-        <v>17.46713598137776</v>
+        <v>11.48247800835018</v>
       </c>
       <c r="F19">
-        <v>29.8341648907721</v>
+        <v>26.81183172595363</v>
       </c>
       <c r="G19">
-        <v>38.63849736289644</v>
+        <v>37.72071143609106</v>
       </c>
       <c r="H19">
-        <v>16.3756971293137</v>
+        <v>11.46371373022186</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.50434505477183</v>
+        <v>16.92807465840565</v>
       </c>
       <c r="L19">
-        <v>8.805733259254202</v>
+        <v>6.589972718464811</v>
       </c>
       <c r="M19">
-        <v>15.49174068234339</v>
+        <v>11.10797482831374</v>
       </c>
       <c r="N19">
-        <v>21.44899454168684</v>
+        <v>13.59856040046643</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.82455461372133</v>
+        <v>14.91816874428598</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.756383231144458</v>
+        <v>4.4067212675815</v>
       </c>
       <c r="E20">
-        <v>17.46031558134847</v>
+        <v>11.46956927098976</v>
       </c>
       <c r="F20">
-        <v>29.87886046174146</v>
+        <v>27.14186211735622</v>
       </c>
       <c r="G20">
-        <v>38.72319378431393</v>
+        <v>38.22887940098131</v>
       </c>
       <c r="H20">
-        <v>16.37139802493138</v>
+        <v>11.5211298605698</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.65352613301406</v>
+        <v>17.22878972814963</v>
       </c>
       <c r="L20">
-        <v>8.814016390008984</v>
+        <v>6.66727648747871</v>
       </c>
       <c r="M20">
-        <v>15.50101531398083</v>
+        <v>11.21904841935218</v>
       </c>
       <c r="N20">
-        <v>21.42615461119603</v>
+        <v>13.51298068927496</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.94741271382851</v>
+        <v>15.61509691247962</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.769625763609247</v>
+        <v>4.434261907420236</v>
       </c>
       <c r="E21">
-        <v>17.43835192385502</v>
+        <v>11.42889242453435</v>
       </c>
       <c r="F21">
-        <v>30.0376256658459</v>
+        <v>28.25621085896517</v>
       </c>
       <c r="G21">
-        <v>39.01974393217083</v>
+        <v>39.94223917068777</v>
       </c>
       <c r="H21">
-        <v>16.36051209438614</v>
+        <v>11.72447218931693</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.13809591927744</v>
+        <v>18.2084263919758</v>
       </c>
       <c r="L21">
-        <v>8.843462716715344</v>
+        <v>6.986892100804559</v>
       </c>
       <c r="M21">
-        <v>15.53496680262387</v>
+        <v>11.59167153920793</v>
       </c>
       <c r="N21">
-        <v>21.35160613177928</v>
+        <v>13.22854275314199</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.03005643253165</v>
+        <v>16.06211561145174</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.778146551093116</v>
+        <v>4.451954145044117</v>
       </c>
       <c r="E22">
-        <v>17.42470496330355</v>
+        <v>11.40440734615094</v>
       </c>
       <c r="F22">
-        <v>30.14768241147894</v>
+        <v>28.98805879293222</v>
       </c>
       <c r="G22">
-        <v>39.22224602159711</v>
+        <v>41.06572627786555</v>
       </c>
       <c r="H22">
-        <v>16.35605013805585</v>
+        <v>11.8653461792827</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.44223188503441</v>
+        <v>18.82600526213873</v>
       </c>
       <c r="L22">
-        <v>8.863893543155662</v>
+        <v>7.228431250431989</v>
       </c>
       <c r="M22">
-        <v>15.55921305244971</v>
+        <v>11.8345029407649</v>
       </c>
       <c r="N22">
-        <v>21.30451167249169</v>
+        <v>13.0448427322357</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.98573942938782</v>
+        <v>15.8243321252955</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.773611228910145</v>
+        <v>4.442540653927912</v>
       </c>
       <c r="E23">
-        <v>17.43192398512654</v>
+        <v>11.41727714202021</v>
       </c>
       <c r="F23">
-        <v>30.08837452650042</v>
+        <v>28.5971619264289</v>
       </c>
       <c r="G23">
-        <v>39.11338771889457</v>
+        <v>40.46580085214826</v>
       </c>
       <c r="H23">
-        <v>16.35818885500905</v>
+        <v>11.78941602849015</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.28106615144421</v>
+        <v>18.49844968141065</v>
       </c>
       <c r="L23">
-        <v>8.852881941204275</v>
+        <v>7.100314989036717</v>
       </c>
       <c r="M23">
-        <v>15.54608564772862</v>
+        <v>11.70497965847782</v>
       </c>
       <c r="N23">
-        <v>21.32949831796986</v>
+        <v>13.14269314533082</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.82258763044072</v>
+        <v>14.90664093709186</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.756164554745824</v>
+        <v>4.406266185598449</v>
       </c>
       <c r="E24">
-        <v>17.4606865388912</v>
+        <v>11.4702682368576</v>
       </c>
       <c r="F24">
-        <v>29.87637339284781</v>
+        <v>27.12371620436372</v>
       </c>
       <c r="G24">
-        <v>38.71849699334675</v>
+        <v>38.20094847522032</v>
       </c>
       <c r="H24">
-        <v>16.37162072650537</v>
+        <v>11.51793811340531</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.64539608658111</v>
+        <v>17.21239199311147</v>
       </c>
       <c r="L24">
-        <v>8.813555394210239</v>
+        <v>6.663037660078591</v>
       </c>
       <c r="M24">
-        <v>15.50049544434332</v>
+        <v>11.21295017679598</v>
       </c>
       <c r="N24">
-        <v>21.42740061628436</v>
+        <v>13.51766837737716</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.65731457256375</v>
+        <v>13.88346301304756</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.736782780777101</v>
+        <v>4.365928080784689</v>
       </c>
       <c r="E25">
-        <v>17.49476216441191</v>
+        <v>11.53587762568277</v>
       </c>
       <c r="F25">
-        <v>29.67541344218705</v>
+        <v>25.55346130126072</v>
       </c>
       <c r="G25">
-        <v>38.3313669364329</v>
+        <v>35.77934667741543</v>
       </c>
       <c r="H25">
-        <v>16.39749241123122</v>
+        <v>11.25803448448845</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.906808795603979</v>
+        <v>15.72648823975595</v>
       </c>
       <c r="L25">
-        <v>8.776344393853845</v>
+        <v>6.290749718989121</v>
       </c>
       <c r="M25">
-        <v>15.46029161342575</v>
+        <v>10.68109035173572</v>
       </c>
       <c r="N25">
-        <v>21.54002591493527</v>
+        <v>13.93229840503689</v>
       </c>
       <c r="O25">
         <v>0</v>
